--- a/authordata.xlsx
+++ b/authordata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15075" windowHeight="10755" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15075" windowHeight="10755" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cogn-py" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,12 @@
     <sheet name="Cognitive neuroscience" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
     <sheet name="social cognition" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
+    <sheet name="education" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Cognitive neuroscience'!$B$2:$J$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">education!$A$1:$O$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'social cognition'!$A$3:$L$24</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="816">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -2033,10 +2036,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2004以前</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>认知神经科学谷歌关键词“cognitive neuroscience”前20</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2400,6 +2399,323 @@
   </si>
   <si>
     <t>原始数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1548143791-1</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com.sg/citations?view_op=search_authors&amp;hl=zh-CN&amp;mauthors=label:education&amp;before_author=8a_3_x5DAQAJ&amp;astart=0</t>
+  </si>
+  <si>
+    <t>أ.د. خلود رحيم عصفور</t>
+  </si>
+  <si>
+    <t>baghdad university</t>
+  </si>
+  <si>
+    <t>被引用次数：353297</t>
+  </si>
+  <si>
+    <t>education measrment technology computer psychology</t>
+  </si>
+  <si>
+    <t>1548143791-8</t>
+  </si>
+  <si>
+    <t>被引用次数：98558</t>
+  </si>
+  <si>
+    <t>1548143791-4</t>
+  </si>
+  <si>
+    <t>James S. Coleman</t>
+  </si>
+  <si>
+    <t>Sociology, University of Chicago</t>
+  </si>
+  <si>
+    <t>被引用次数：141116</t>
+  </si>
+  <si>
+    <t>sociology education</t>
+  </si>
+  <si>
+    <t>1548143791-7</t>
+  </si>
+  <si>
+    <t>Helio Takai</t>
+  </si>
+  <si>
+    <t>Pratt Institute</t>
+  </si>
+  <si>
+    <t>被引用次数：99875</t>
+  </si>
+  <si>
+    <t>high energy physics nuclear physics cosmic rays instrumentation education</t>
+  </si>
+  <si>
+    <t>1548143791-9</t>
+  </si>
+  <si>
+    <t>Allan Collins</t>
+  </si>
+  <si>
+    <t>Professor Emeritus of Learning Sciences, Northwestern University</t>
+  </si>
+  <si>
+    <t>被引用次数：85305</t>
+  </si>
+  <si>
+    <t>Education Psychology Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>1548143791-3</t>
+  </si>
+  <si>
+    <t>Howard Gardner</t>
+  </si>
+  <si>
+    <t>Hobbs Professor of Cognition and Education</t>
+  </si>
+  <si>
+    <t>被引用次数：162386</t>
+  </si>
+  <si>
+    <t>intelligence creativity education arts ethics</t>
+  </si>
+  <si>
+    <t>1548143791-5</t>
+  </si>
+  <si>
+    <t>Rakesh Agrawal</t>
+  </si>
+  <si>
+    <t>Technical Fellow, Microsoft Research</t>
+  </si>
+  <si>
+    <t>被引用次数：119550</t>
+  </si>
+  <si>
+    <t>Data Mining Web Search Education Privacy</t>
+  </si>
+  <si>
+    <t>1548143791-6</t>
+  </si>
+  <si>
+    <t>Ahmad Alaeraini</t>
+  </si>
+  <si>
+    <t>curriculum and instructions</t>
+  </si>
+  <si>
+    <t>被引用次数：109520</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>1548143791-2</t>
+  </si>
+  <si>
+    <t>Richard M Ryan</t>
+  </si>
+  <si>
+    <t>Institute for Positive Psychology &amp; Education, Australian Catholic University</t>
+  </si>
+  <si>
+    <t>被引用次数：275724</t>
+  </si>
+  <si>
+    <t>Psychology Self-Determination Theory Motivation Education Organizational Behavior</t>
+  </si>
+  <si>
+    <t>1548143791-10</t>
+  </si>
+  <si>
+    <t>Alan Krueger</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>被引用次数：85134</t>
+  </si>
+  <si>
+    <t>labor economics education inequality</t>
+  </si>
+  <si>
+    <t>1548143843-20</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com.sg/citations?view_op=search_authors&amp;hl=zh-CN&amp;mauthors=label:education&amp;after_author=B9l5AG-z_v8J&amp;astart=10</t>
+  </si>
+  <si>
+    <t>Mark Greenberg</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University</t>
+  </si>
+  <si>
+    <t>被引用次数：53986</t>
+  </si>
+  <si>
+    <t>Psychology Education</t>
+  </si>
+  <si>
+    <t>1548143843-19</t>
+  </si>
+  <si>
+    <t>Howard S. Matis</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory</t>
+  </si>
+  <si>
+    <t>被引用次数：58979</t>
+  </si>
+  <si>
+    <t>Heavy Ion Physics Neutrino Astrophysics Education</t>
+  </si>
+  <si>
+    <t>1548143843-16</t>
+  </si>
+  <si>
+    <t>Andy Hargreaves</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>被引用次数：64149</t>
+  </si>
+  <si>
+    <t>1548143843-15</t>
+  </si>
+  <si>
+    <t>Marinus van IJzendoorn</t>
+  </si>
+  <si>
+    <t>Erasmus University Rotterdam; Leiden University</t>
+  </si>
+  <si>
+    <t>被引用次数：67398</t>
+  </si>
+  <si>
+    <t>education psychology psychiatry</t>
+  </si>
+  <si>
+    <t>1548143843-13</t>
+  </si>
+  <si>
+    <t>被引用次数：69908</t>
+  </si>
+  <si>
+    <t>1548143843-11</t>
+  </si>
+  <si>
+    <t>Brett Kissela</t>
+  </si>
+  <si>
+    <t>Professor of Neurology, University of Cincinnati</t>
+  </si>
+  <si>
+    <t>被引用次数：82716</t>
+  </si>
+  <si>
+    <t>stroke education</t>
+  </si>
+  <si>
+    <t>1548143843-18</t>
+  </si>
+  <si>
+    <t>Thomas R. Cech</t>
+  </si>
+  <si>
+    <t>Distinguished Professor, Department of Chemistry and Biochemistry, University of Colorado …</t>
+  </si>
+  <si>
+    <t>被引用次数：61665</t>
+  </si>
+  <si>
+    <t>Biochemistry Molecular Biology Chemistry Education</t>
+  </si>
+  <si>
+    <t>1548143843-12</t>
+  </si>
+  <si>
+    <t>kamal Benslama</t>
+  </si>
+  <si>
+    <t>Physics Professor</t>
+  </si>
+  <si>
+    <t>被引用次数：80475</t>
+  </si>
+  <si>
+    <t>Particle physics simulation electronics Education Machine Learning</t>
+  </si>
+  <si>
+    <t>1548143843-14</t>
+  </si>
+  <si>
+    <t>Mait Müntel</t>
+  </si>
+  <si>
+    <t>CEO @ Lingvist</t>
+  </si>
+  <si>
+    <t>被引用次数：69062</t>
+  </si>
+  <si>
+    <t>HEP Languages Education</t>
+  </si>
+  <si>
+    <t>1548143843-17</t>
+  </si>
+  <si>
+    <t>Greg J. Duncan</t>
+  </si>
+  <si>
+    <t>Distinguished Professor of Education, University of California, Irvine</t>
+  </si>
+  <si>
+    <t>被引用次数：62720</t>
+  </si>
+  <si>
+    <t>Poverty public policy education child development income distribution</t>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年至今</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年至今</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richard M Ryan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Howard Gardner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahmad Alaeraini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allan Collins</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>James S. Coleman</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3054,7 +3370,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3103,6 +3419,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -3466,7 +3788,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="153" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1">
@@ -4356,6 +4678,599 @@
   <sortState ref="A1:E53">
     <sortCondition ref="B3"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="3" width="9" style="21"/>
+    <col min="5" max="5" width="9" style="21"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="21">
+        <v>72</v>
+      </c>
+      <c r="C2" s="21">
+        <v>65</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21">
+        <v>353297</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" s="21">
+        <v>164</v>
+      </c>
+      <c r="C3" s="21">
+        <v>134</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21">
+        <v>275724</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" s="21">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21">
+        <v>75</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21">
+        <v>162386</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5" s="21">
+        <v>75</v>
+      </c>
+      <c r="C5" s="21">
+        <v>38</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
+        <v>141116</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B6" s="21">
+        <v>103</v>
+      </c>
+      <c r="C6" s="21">
+        <v>55</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21">
+        <v>119550</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" s="21">
+        <v>153</v>
+      </c>
+      <c r="C7" s="21">
+        <v>128</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21">
+        <v>109520</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <v>99875</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" s="21">
+        <v>152</v>
+      </c>
+      <c r="C9" s="21">
+        <v>108</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21">
+        <v>98558</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="B10" s="21">
+        <v>67</v>
+      </c>
+      <c r="C10" s="21">
+        <v>39</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
+        <v>85305</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
+        <v>85134</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <v>82716</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21">
+        <v>80475</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21">
+        <v>86</v>
+      </c>
+      <c r="C14" s="21">
+        <v>57</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
+        <v>69908</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21">
+        <v>69062</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="B16" s="21">
+        <v>119</v>
+      </c>
+      <c r="C16" s="21">
+        <v>91</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21">
+        <v>67398</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="B17" s="21">
+        <v>105</v>
+      </c>
+      <c r="C17" s="21">
+        <v>67</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>64149</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="B18" s="21">
+        <v>121</v>
+      </c>
+      <c r="C18" s="21">
+        <v>65</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21">
+        <v>62720</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21">
+        <v>61665</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>58979</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="B21" s="21">
+        <v>112</v>
+      </c>
+      <c r="C21" s="21">
+        <v>71</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21">
+        <v>53986</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="H22" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O22">
+    <sortState ref="A2:O22">
+      <sortCondition descending="1" ref="G1:G22"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4421,7 +5336,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F3" s="8">
         <v>124503</v>
@@ -4862,7 +5777,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F21" s="8">
         <v>46585</v>
@@ -5949,7 +6864,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="96.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6583,7 +7498,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6625,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C3" s="8">
         <v>137</v>
@@ -6694,7 +7609,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C6" s="8">
         <v>121</v>
@@ -6717,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C7" s="8">
         <v>94</v>
@@ -6740,7 +7655,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C8" s="8">
         <v>103</v>
@@ -6749,7 +7664,7 @@
         <v>74</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F8" s="11">
         <v>65979</v>
@@ -6763,7 +7678,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C9" s="4">
         <v>106</v>
@@ -6786,7 +7701,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C10" s="8">
         <v>94</v>
@@ -6809,7 +7724,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C11" s="8">
         <v>108</v>
@@ -7772,7 +8687,7 @@
     </row>
     <row r="25" spans="1:6" ht="106.5" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -7786,7 +8701,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7802,7 +8717,7 @@
     <row r="1" spans="1:21" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="19"/>
       <c r="B1" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -7812,8 +8727,8 @@
       <c r="C2" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>601</v>
+      <c r="D2" s="21" t="s">
+        <v>810</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3</v>
@@ -7836,7 +8751,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C3" s="17">
         <v>155</v>
@@ -7870,7 +8785,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C4" s="17">
         <v>152</v>
@@ -7904,7 +8819,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C5" s="17">
         <v>147</v>
@@ -7938,7 +8853,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C6" s="17">
         <v>139</v>
@@ -7972,7 +8887,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7" s="17">
         <v>132</v>
@@ -8040,7 +8955,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C9" s="17">
         <v>120</v>
@@ -8074,7 +8989,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C10" s="17">
         <v>118</v>
@@ -8108,7 +9023,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C11" s="17">
         <v>117</v>
@@ -8142,7 +9057,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C12" s="17">
         <v>114</v>
@@ -8603,10 +9518,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>603</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>604</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>512</v>
@@ -8623,30 +9538,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>608</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>81</v>
@@ -8655,7 +9570,7 @@
         <v>82</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>84</v>
@@ -8663,10 +9578,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>336</v>
@@ -8675,7 +9590,7 @@
         <v>337</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>339</v>
@@ -8683,10 +9598,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>558</v>
@@ -8703,10 +9618,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>52</v>
@@ -8715,7 +9630,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>55</v>
@@ -8723,82 +9638,82 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>620</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>625</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>630</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>635</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8823,50 +9738,50 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>641</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>646</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>357</v>
@@ -8875,7 +9790,7 @@
         <v>358</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>360</v>
@@ -8883,142 +9798,142 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>653</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>662</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>663</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="F19" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="F20" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="E21" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>678</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>683</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -9031,8 +9946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9046,7 +9961,7 @@
     <row r="1" spans="1:14" s="19" customFormat="1"/>
     <row r="2" spans="1:14" s="19" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -9056,15 +9971,15 @@
       <c r="B3" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>601</v>
+      <c r="C3" s="21" t="s">
+        <v>810</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>5</v>
@@ -9078,7 +9993,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B4" s="19">
         <v>155</v>
@@ -9105,7 +10020,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B5" s="19">
         <v>137</v>
@@ -9132,7 +10047,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B6" s="19">
         <v>133</v>
@@ -9141,14 +10056,14 @@
         <v>87</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E6" s="19"/>
       <c r="G6" s="19">
         <v>110191</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -9159,7 +10074,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B7" s="19">
         <v>115</v>
@@ -9168,14 +10083,14 @@
         <v>75</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E7" s="19"/>
       <c r="G7" s="19">
         <v>77876</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -9186,7 +10101,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B8" s="19">
         <v>101</v>
@@ -9240,7 +10155,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B10" s="19">
         <v>106</v>
@@ -9267,7 +10182,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B11" s="19">
         <v>106</v>
@@ -9276,14 +10191,14 @@
         <v>67</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E11" s="19"/>
       <c r="G11" s="19">
         <v>53186</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -9294,7 +10209,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B12" s="19">
         <v>77</v>
@@ -9303,14 +10218,14 @@
         <v>65</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E12" s="19"/>
       <c r="G12" s="19">
         <v>42739</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -9321,7 +10236,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B13" s="19">
         <v>100</v>
@@ -9330,14 +10245,14 @@
         <v>64</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E13" s="19"/>
       <c r="G13" s="19">
         <v>41386</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -9348,7 +10263,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="19">
         <v>88</v>
@@ -9357,14 +10272,14 @@
         <v>66</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E14" s="19"/>
       <c r="G14" s="19">
         <v>41132</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -9375,7 +10290,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B15" s="19">
         <v>87</v>
@@ -9384,14 +10299,14 @@
         <v>53</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E15" s="19"/>
       <c r="G15" s="19">
         <v>35844</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -9402,7 +10317,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" s="19">
         <v>74</v>
@@ -9411,14 +10326,14 @@
         <v>61</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E16" s="19"/>
       <c r="G16" s="19">
         <v>34625</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -9429,7 +10344,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B17" s="19">
         <v>78</v>
@@ -9438,14 +10353,14 @@
         <v>50</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E17" s="19"/>
       <c r="G17" s="19">
         <v>30406</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -9456,7 +10371,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B18" s="19">
         <v>83</v>
@@ -9465,14 +10380,14 @@
         <v>72</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E18" s="19"/>
       <c r="G18" s="19">
         <v>29768</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -9510,7 +10425,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B20" s="19">
         <v>76</v>
@@ -9519,14 +10434,14 @@
         <v>50</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E20" s="19"/>
       <c r="G20" s="19">
         <v>27080</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -9537,7 +10452,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B21" s="19">
         <v>71</v>
@@ -9546,14 +10461,14 @@
         <v>52</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E21" s="19"/>
       <c r="G21" s="19">
         <v>23990</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -9564,7 +10479,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B22" s="19">
         <v>59</v>
@@ -9573,14 +10488,14 @@
         <v>49</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E22" s="19"/>
       <c r="G22" s="19">
         <v>23177</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
@@ -9591,7 +10506,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B23" s="19">
         <v>80</v>
@@ -9600,14 +10515,14 @@
         <v>45</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E23" s="19"/>
       <c r="G23" s="19">
         <v>23105</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -9637,4 +10552,460 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="21" t="s">
+        <v>793</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>807</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>